--- a/server/edd_file_importer/tests/files/generic_import/FBA-OD-generic-processing-errs.xlsx
+++ b/server/edd_file_importer/tests/files/generic_import/FBA-OD-generic-processing-errs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mark.forrer/Documents/code/edd/edd_file_importer/tests/files/generic_import/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mark.forrer/Documents/code/edd/server/edd_file_importer/tests/files/generic_import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5F788E-7815-884F-B654-06A668FD4AB4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5069F09-2DF5-E843-93DC-1BF6C4E08F35}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="88460" yWindow="11700" windowWidth="11940" windowHeight="15440" xr2:uid="{3DB64A7D-77CF-1B4C-90A3-F42F77CC534F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="14740" xr2:uid="{3DB64A7D-77CF-1B4C-90A3-F42F77CC534F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="9">
   <si>
     <t>Line Name</t>
   </si>
@@ -67,12 +67,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -87,8 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18050429-6D13-294A-9446-85474A7265CA}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -449,36 +456,36 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0.1</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
         <v>7.5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>1.49</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -500,19 +507,19 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>2.96</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -524,10 +531,10 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7">
-        <v>3.58</v>
+        <v>2.96</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -541,10 +548,10 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>3.98</v>
+        <v>3.58</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -558,10 +565,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>4.3099999999999996</v>
+        <v>3.98</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
@@ -569,52 +576,52 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10">
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D11" s="1">
         <v>0.1</v>
       </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11">
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D12" s="1">
         <v>0.1</v>
       </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>7.5</v>
-      </c>
-      <c r="D12">
-        <v>1.49</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -626,10 +633,10 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="D13">
-        <v>2.72</v>
+        <v>1.49</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
@@ -643,10 +650,10 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="D14">
-        <v>3.95</v>
+        <v>2.72</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
@@ -660,10 +667,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>5.69</v>
+        <v>3.95</v>
       </c>
       <c r="E15" t="s">
         <v>5</v>
@@ -677,10 +684,10 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>6.41</v>
+        <v>5.69</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
@@ -694,12 +701,29 @@
         <v>2</v>
       </c>
       <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>6.41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
         <v>17</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>6.51</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>5</v>
       </c>
     </row>
